--- a/Study Selection and Quality Assessment Process/Included and Excluded Research Articles_recap.xlsx
+++ b/Study Selection and Quality Assessment Process/Included and Excluded Research Articles_recap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Faith/Desktop/SystematicReview/Study Selection and Quality Assessment Process/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Faith/Documents/GitHub/SystematicReview_Design/Study Selection and Quality Assessment Process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874293BA-9AC0-8C4A-9501-54BA24912B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F9D4A-BA7C-E144-B61A-B621CCFE957A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10480" yWindow="500" windowWidth="18320" windowHeight="16400" xr2:uid="{AC8738CE-3428-DC45-AFFE-A667C40C3972}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>EX4 (no duplicates)</t>
-  </si>
   <si>
     <t>EX1 (year)</t>
   </si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>EX12 (no design)</t>
+  </si>
+  <si>
+    <t>EX4 (no duplicates/multiple publication)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
                   <c:v>EX3 (type of contribution)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EX4 (no duplicates)</c:v>
+                  <c:v>EX4 (no duplicates/multiple publication)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>EX5 (no full text)</c:v>
@@ -608,7 +608,7 @@
                   <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14</c:v>
@@ -1639,33 +1639,33 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="41.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <f t="shared" ref="B2:B13" si="0">SUM(C2,D2,E2)</f>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" si="0"/>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
@@ -1719,11 +1719,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1">
         <v>210</v>
@@ -1732,12 +1732,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
@@ -1882,7 +1882,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <f>SUM(B1:B13)</f>
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(C2:C13)</f>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="E16" s="1">
         <f>SUM(E1:E13)</f>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
